--- a/KeywordDriven/src/com/selenium/Dataengine/Keywords.xlsx
+++ b/KeywordDriven/src/com/selenium/Dataengine/Keywords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Keyword</t>
   </si>
   <si>
-    <t>Login_01</t>
-  </si>
-  <si>
     <t>TS_01</t>
   </si>
   <si>
@@ -124,6 +121,39 @@
   </si>
   <si>
     <t>click</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>open browser</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com</t>
+  </si>
+  <si>
+    <t>https://www.gmail.com</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>TS_03`</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com</t>
+  </si>
+  <si>
+    <t>Amazon.com: Online Shopping for Electronics, Apparel, Computers, Books, DVDs &amp; more</t>
+  </si>
+  <si>
+    <t>Verify Title</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
   </si>
 </sst>
 </file>
@@ -199,12 +229,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,10 +556,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -534,169 +567,295 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>25</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
     <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
